--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-providedocumentbundle-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-providedocumentbundle-comprehensive.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-providedocumentbundle-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-providedocumentbundle-comprehensive.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -442,7 +442,7 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +514,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +557,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1265,7 +1265,7 @@
     <t>the superseded DocumentReference resources</t>
   </si>
   <si>
-    <t>any updated DocumentReference that are part of the SubmissionSet if a new new DocumentReference replaces this DocumentReference.</t>
+    <t>any updated DocumentReference that are part of the SubmissionSet if a new DocumentReference replaces this DocumentReference.</t>
   </si>
   <si>
     <t>Bundle.entry:UpdateDocumentRefs.id</t>
@@ -3380,7 +3380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
@@ -5787,7 +5787,7 @@
         <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
@@ -8710,7 +8710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>315</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>324</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>336</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>340</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>356</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>365</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>378</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>382</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>437</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>446</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>458</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>462</v>
       </c>
@@ -34198,12 +34198,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN282">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
